--- a/Spring Backlog (1).xlsx
+++ b/Spring Backlog (1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\Agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\GitHub\ProjectPTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Task ID</t>
   </si>
@@ -111,12 +111,36 @@
   </si>
   <si>
     <t>desiging Home page using HTML5+CSS</t>
+  </si>
+  <si>
+    <t>PassengerDetails.php</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Back End Done</t>
+  </si>
+  <si>
+    <t>RiskDetails.php</t>
+  </si>
+  <si>
+    <t>ListOfFlights.php</t>
+  </si>
+  <si>
+    <t>ListOfPassengers.php</t>
+  </si>
+  <si>
+    <t>searchPassengers.php</t>
+  </si>
+  <si>
+    <t>searchFlights.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,6 +700,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -763,8 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,11 +1102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,66 +1131,66 @@
   <sheetData>
     <row r="2" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="55"/>
+      <c r="K3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="41" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="45"/>
     </row>
     <row r="4" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="59"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="55"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="46"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="48"/>
     </row>
     <row r="5" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="15">
@@ -1250,7 +1274,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="61"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -1284,7 +1308,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="60"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="5"/>
@@ -1295,14 +1319,22 @@
     </row>
     <row r="8" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <v>2</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1316,15 +1348,23 @@
     </row>
     <row r="9" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="7"/>
       <c r="K9" s="20"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="5">
+        <v>3</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="11"/>
@@ -1337,13 +1377,21 @@
     </row>
     <row r="10" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="20">
+        <v>1</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1358,9 +1406,15 @@
     </row>
     <row r="11" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
@@ -1368,7 +1422,9 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="O11" s="5">
+        <v>5</v>
+      </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="5"/>
@@ -1379,16 +1435,24 @@
     </row>
     <row r="12" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
       <c r="K12" s="20"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <v>4</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="6"/>
@@ -1400,13 +1464,21 @@
     </row>
     <row r="13" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20">
+        <v>1</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1756,15 +1828,15 @@
       <c r="V29" s="10"/>
     </row>
     <row r="30" spans="4:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="4"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -1779,13 +1851,13 @@
       <c r="V30" s="18"/>
     </row>
     <row r="31" spans="4:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="21"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -1808,19 +1880,19 @@
       <c r="E35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="28"/>
     </row>
@@ -1828,19 +1900,19 @@
       <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="30"/>
     </row>
@@ -1848,19 +1920,19 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
     </row>
@@ -1868,21 +1940,21 @@
       <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="13">
